--- a/tspi/ciclo-2/task1/20095495.xlsx
+++ b/tspi/ciclo-2/task1/20095495.xlsx
@@ -155,32 +155,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.72549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="2.84705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="2.84705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.0470588235294"/>
-    <col collapsed="false" hidden="false" max="1005" min="6" style="2" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="1006" min="1006" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="1008" min="1007" style="0" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="1009" min="1009" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="1010" min="1010" style="0" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="1011" min="1011" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="1014" min="1012" style="0" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="1015" min="1015" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="1017" min="1016" style="0" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="1018" min="1018" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="1019" min="1019" style="0" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="1021" min="1020" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="12.4823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.74509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="2.85882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="2.85882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.1529411764706"/>
+    <col collapsed="false" hidden="false" max="1005" min="6" style="2" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1006" min="1006" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1008" min="1007" style="0" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1009" min="1009" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1010" min="1010" style="0" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1011" min="1011" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1014" min="1012" style="0" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1015" min="1015" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1017" min="1016" style="0" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1018" min="1018" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1019" min="1019" style="0" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1021" min="1020" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1022" min="1022" style="0" width="12.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -220,12 +220,24 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">113/60</f>
+        <v>1.88333333333333</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.75" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <f aca="false">38/60</f>
         <v>0.633333333333333</v>
       </c>
